--- a/CRONOGRAMA.xlsx
+++ b/CRONOGRAMA.xlsx
@@ -246,13 +246,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -559,7 +559,7 @@
   <dimension ref="A1:BS14"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AM21" sqref="AL20:AM21"/>
+      <selection sqref="A1:AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,36 +573,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
       <c r="AC1" s="7"/>
       <c r="AD1" s="7"/>
       <c r="AE1" s="7"/>
@@ -661,78 +661,78 @@
       <c r="E2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11" t="s">
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="9"/>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="9"/>
+      <c r="AS2" s="9"/>
+      <c r="AT2" s="9"/>
+      <c r="AU2" s="9"/>
+      <c r="AV2" s="9"/>
+      <c r="AW2" s="9"/>
+      <c r="AX2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="11"/>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="11"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="11"/>
-      <c r="BJ2" s="11"/>
-      <c r="BK2" s="11"/>
-      <c r="BL2" s="11"/>
-      <c r="BM2" s="11"/>
-      <c r="BN2" s="11"/>
-      <c r="BO2" s="11"/>
-      <c r="BP2" s="11"/>
-      <c r="BQ2" s="11"/>
-      <c r="BR2" s="11"/>
-      <c r="BS2" s="11"/>
+      <c r="AY2" s="9"/>
+      <c r="AZ2" s="9"/>
+      <c r="BA2" s="9"/>
+      <c r="BB2" s="9"/>
+      <c r="BC2" s="9"/>
+      <c r="BD2" s="9"/>
+      <c r="BE2" s="9"/>
+      <c r="BF2" s="9"/>
+      <c r="BG2" s="9"/>
+      <c r="BH2" s="9"/>
+      <c r="BI2" s="9"/>
+      <c r="BJ2" s="9"/>
+      <c r="BK2" s="9"/>
+      <c r="BL2" s="9"/>
+      <c r="BM2" s="9"/>
+      <c r="BN2" s="9"/>
+      <c r="BO2" s="9"/>
+      <c r="BP2" s="9"/>
+      <c r="BQ2" s="9"/>
+      <c r="BR2" s="9"/>
+      <c r="BS2" s="9"/>
     </row>
     <row r="3" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
